--- a/Entrega 4/Pruebas/CrearPregunta.xlsx
+++ b/Entrega 4/Pruebas/CrearPregunta.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pepus Perez Flores\Documents\DAW2020\Entrega 4\Pruebas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C30AF763-C2EC-460F-ABBC-F4B91237F3B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CD9D8C2-3E82-48FF-B56C-E9D61A5746F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14620" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="29">
   <si>
     <t>Escenarios alternativos</t>
   </si>
@@ -51,33 +53,6 @@
     <t>A3</t>
   </si>
   <si>
-    <t>A4</t>
-  </si>
-  <si>
-    <t>A5</t>
-  </si>
-  <si>
-    <t>A6</t>
-  </si>
-  <si>
-    <t>A7</t>
-  </si>
-  <si>
-    <t>A8</t>
-  </si>
-  <si>
-    <t>A9</t>
-  </si>
-  <si>
-    <t>A10</t>
-  </si>
-  <si>
-    <t>A11</t>
-  </si>
-  <si>
-    <t>A12</t>
-  </si>
-  <si>
     <t>El campo de "texto pregunta" esta vacio</t>
   </si>
   <si>
@@ -103,13 +78,49 @@
   </si>
   <si>
     <t>La pregunta no se guarda</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>Recurso Visual</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Materia</t>
+  </si>
+  <si>
+    <t>Pregunta Creada con éxito</t>
+  </si>
+  <si>
+    <t>Pregunta creada</t>
+  </si>
+  <si>
+    <t>TextoPregunta</t>
+  </si>
+  <si>
+    <t>Lore Ipsum</t>
+  </si>
+  <si>
+    <t>imagenlogo.png</t>
+  </si>
+  <si>
+    <t>matematicas</t>
+  </si>
+  <si>
+    <t>Estado de la Prueba</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -135,13 +146,37 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -168,10 +203,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -188,14 +225,30 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -474,245 +527,499 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A3:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="4.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="55.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="67.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="51.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="70.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="57.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="20.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="9" t="s">
+    <row r="3" spans="1:5" ht="20.5" x14ac:dyDescent="0.45">
+      <c r="B3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-    </row>
-    <row r="2" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+    </row>
+    <row r="4" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
+    <row r="5" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="s">
+      <c r="C5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="9"/>
+      <c r="B6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="4" t="s">
+      <c r="C6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="9"/>
+      <c r="B7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="4" t="s">
+      <c r="C7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="3"/>
-    </row>
-    <row r="13" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="4" t="s">
+      <c r="D7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="3"/>
-    </row>
-    <row r="14" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="4" t="s">
+      <c r="E7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="3"/>
-    </row>
-    <row r="15" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="4"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="3"/>
-    </row>
-    <row r="16" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="4"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="3"/>
+    </row>
+    <row r="8" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="9"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="12"/>
+    </row>
+    <row r="9" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="9"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="12"/>
+    </row>
+    <row r="10" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="9"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="12"/>
+    </row>
+    <row r="11" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="9"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="12"/>
+    </row>
+    <row r="12" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="9"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="12"/>
+    </row>
+    <row r="13" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="9"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="12"/>
+    </row>
+    <row r="14" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="9"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="12"/>
+    </row>
+    <row r="15" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="9"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="12"/>
+    </row>
+    <row r="16" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="9"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="12"/>
     </row>
     <row r="17" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="3"/>
+      <c r="A17" s="9"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="12"/>
     </row>
     <row r="18" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="4"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="3"/>
+      <c r="A18" s="9"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="12"/>
     </row>
     <row r="19" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="4"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="3"/>
+      <c r="A19" s="9"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="12"/>
     </row>
     <row r="20" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="4"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="3"/>
+      <c r="A20" s="9"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="12"/>
     </row>
     <row r="21" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="4"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="3"/>
+      <c r="A21" s="9"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="12"/>
     </row>
     <row r="22" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="4"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="3"/>
+      <c r="A22" s="9"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="12"/>
     </row>
     <row r="23" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="4"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="3"/>
+      <c r="A23" s="9"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="12"/>
     </row>
     <row r="24" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="4"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="3"/>
+      <c r="A24" s="9"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="12"/>
     </row>
     <row r="25" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="4"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="3"/>
+      <c r="A25" s="9"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="12"/>
     </row>
     <row r="26" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="4"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="3"/>
+      <c r="A26" s="9"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="12"/>
     </row>
     <row r="27" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A27" s="8"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="3"/>
+      <c r="A27" s="14"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="12"/>
     </row>
     <row r="28" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="8"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="3"/>
+      <c r="A28" s="14"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B3:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23587542-3340-4022-9980-6B7F1637A86C}">
+  <dimension ref="B4:G9"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="3.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.08984375" customWidth="1"/>
+    <col min="7" max="7" width="57.08984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:7" ht="20.5" x14ac:dyDescent="0.45">
+      <c r="B4" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B7" s="4">
+        <v>2</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B8" s="4">
+        <v>3</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B9" s="4">
+        <v>5</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B4:G4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EBEFA47-4CC0-4DEC-AA2B-F1D62A897C18}">
+  <dimension ref="B5:H10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="3.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="57.08984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="2:8" ht="20.5" x14ac:dyDescent="0.45">
+      <c r="B5" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="2:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="16"/>
+    </row>
+    <row r="8" spans="2:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B8" s="4">
+        <v>2</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="16"/>
+    </row>
+    <row r="9" spans="2:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B9" s="4">
+        <v>3</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="17"/>
+    </row>
+    <row r="10" spans="2:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B10" s="4">
+        <v>5</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B5:G5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>